--- a/datas/Final_values_Overshoot_and_Kd/All_processed_values_2_sheets.xlsx
+++ b/datas/Final_values_Overshoot_and_Kd/All_processed_values_2_sheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomm\.vscode\Folders\Github\Mobile-Robot\datas\Final_values_Overshoot_and_Kd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C53111-7116-4A75-A700-1B601157CFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB58D0C-2ADB-46BA-8CF6-246E41ECA843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="10500" activeTab="1" xr2:uid="{D227F301-55E0-4A21-BB0B-C04091E3F129}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{D227F301-55E0-4A21-BB0B-C04091E3F129}"/>
   </bookViews>
   <sheets>
     <sheet name="Values_for_overshoot" sheetId="1" r:id="rId1"/>
@@ -688,32 +688,22 @@
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -2029,7 +2019,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-64D0-4716-B6EC-4C587E2A30BA}"/>
@@ -2040,26 +2030,16 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -3375,7 +3355,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-64D0-4716-B6EC-4C587E2A30BA}"/>
@@ -9574,7 +9554,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Jp</a:t>
+              <a:t>Kp</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="fr-FR" baseline="0"/>
@@ -9617,32 +9597,22 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -10970,7 +10940,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DDCA-40DD-88EE-75662DF36CFE}"/>
@@ -10981,26 +10951,16 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -12328,7 +12288,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DDCA-40DD-88EE-75662DF36CFE}"/>
@@ -12631,32 +12591,22 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -13972,7 +13922,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D6F7-4110-8FA0-CD5E66C7774A}"/>
@@ -13983,26 +13933,16 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -15318,7 +15258,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D6F7-4110-8FA0-CD5E66C7774A}"/>
@@ -15621,32 +15561,22 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -16962,7 +16892,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-11AE-43A3-B5D4-5AA909CDFE1B}"/>
@@ -16973,26 +16903,16 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -18308,7 +18228,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-11AE-43A3-B5D4-5AA909CDFE1B}"/>
@@ -18611,32 +18531,22 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -19958,7 +19868,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-02EF-4998-8C9F-E65D444D9662}"/>
@@ -19969,26 +19879,16 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -21310,7 +21210,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-02EF-4998-8C9F-E65D444D9662}"/>
@@ -39568,14 +39468,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>13139</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>39414</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>60961</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -42686,8 +42586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC89D4DA-E4D8-4505-B910-587E46D2F485}">
   <dimension ref="A103:W321"/>
   <sheetViews>
-    <sheetView topLeftCell="A265" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104:H321"/>
+    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52890,7 +52790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241FD97D-D35C-4AA8-85E2-0B3D3912C031}">
   <dimension ref="A26:S498"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="44" workbookViewId="0">
+    <sheetView zoomScale="44" workbookViewId="0">
       <selection activeCell="AK33" sqref="AK33"/>
     </sheetView>
   </sheetViews>
